--- a/Team-Data/2008-09/4-15-2008-09.xlsx
+++ b/Team-Data/2008-09/4-15-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,40 +733,40 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E2" t="n">
         <v>47</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.573</v>
+        <v>0.58</v>
       </c>
       <c r="H2" t="n">
         <v>48.1</v>
       </c>
       <c r="I2" t="n">
-        <v>36</v>
+        <v>36.1</v>
       </c>
       <c r="J2" t="n">
         <v>78.7</v>
       </c>
       <c r="K2" t="n">
-        <v>0.458</v>
+        <v>0.459</v>
       </c>
       <c r="L2" t="n">
         <v>7.3</v>
       </c>
       <c r="M2" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N2" t="n">
         <v>0.366</v>
       </c>
       <c r="O2" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="P2" t="n">
         <v>25.4</v>
@@ -717,7 +784,7 @@
         <v>40</v>
       </c>
       <c r="U2" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="V2" t="n">
         <v>12.8</v>
@@ -729,28 +796,28 @@
         <v>4.6</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.09999999999999</v>
+        <v>98.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE2" t="n">
         <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
@@ -762,16 +829,16 @@
         <v>24</v>
       </c>
       <c r="AJ2" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL2" t="n">
         <v>8</v>
       </c>
       <c r="AM2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN2" t="n">
         <v>16</v>
@@ -795,19 +862,19 @@
         <v>23</v>
       </c>
       <c r="AU2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AV2" t="n">
         <v>7</v>
       </c>
       <c r="AW2" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AX2" t="n">
         <v>20</v>
       </c>
       <c r="AY2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ2" t="n">
         <v>5</v>
@@ -816,7 +883,7 @@
         <v>17</v>
       </c>
       <c r="BB2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC2" t="n">
         <v>12</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -863,31 +930,31 @@
         <v>48.5</v>
       </c>
       <c r="I3" t="n">
-        <v>37.6</v>
+        <v>37.4</v>
       </c>
       <c r="J3" t="n">
-        <v>77.3</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.486</v>
+        <v>0.485</v>
       </c>
       <c r="L3" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
-        <v>0.399</v>
+        <v>0.395</v>
       </c>
       <c r="O3" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="P3" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R3" t="n">
         <v>10.6</v>
@@ -896,22 +963,22 @@
         <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="U3" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V3" t="n">
         <v>15.6</v>
       </c>
       <c r="W3" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X3" t="n">
         <v>4.8</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z3" t="n">
         <v>23.1</v>
@@ -920,13 +987,13 @@
         <v>22.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101</v>
+        <v>100.7</v>
       </c>
       <c r="AC3" t="n">
         <v>7.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>3</v>
       </c>
       <c r="AH3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI3" t="n">
         <v>9</v>
@@ -950,7 +1017,7 @@
         <v>2</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -962,7 +1029,7 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="n">
         <v>16</v>
@@ -974,7 +1041,7 @@
         <v>6</v>
       </c>
       <c r="AT3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AU3" t="n">
         <v>4</v>
@@ -983,10 +1050,10 @@
         <v>27</v>
       </c>
       <c r="AW3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -995,13 +1062,13 @@
         <v>27</v>
       </c>
       <c r="BA3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BC3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -1030,58 +1097,58 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E4" t="n">
         <v>35</v>
       </c>
       <c r="F4" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G4" t="n">
-        <v>0.427</v>
+        <v>0.432</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>35.1</v>
       </c>
       <c r="J4" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>0.455</v>
+        <v>0.456</v>
       </c>
       <c r="L4" t="n">
         <v>6</v>
       </c>
       <c r="M4" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="N4" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O4" t="n">
         <v>17.7</v>
       </c>
       <c r="P4" t="n">
-        <v>24</v>
+        <v>23.8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>0.742</v>
       </c>
       <c r="R4" t="n">
         <v>10.8</v>
       </c>
       <c r="S4" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T4" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="V4" t="n">
         <v>15.6</v>
@@ -1102,25 +1169,25 @@
         <v>20.9</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC4" t="n">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="AD4" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH4" t="n">
         <v>1</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>3</v>
       </c>
       <c r="AI4" t="n">
         <v>29</v>
@@ -1138,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="AN4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO4" t="n">
         <v>26</v>
@@ -1150,10 +1217,10 @@
         <v>27</v>
       </c>
       <c r="AR4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AS4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AT4" t="n">
         <v>27</v>
@@ -1180,10 +1247,10 @@
         <v>13</v>
       </c>
       <c r="BB4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -1215,25 +1282,25 @@
         <v>81</v>
       </c>
       <c r="E5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F5" t="n">
         <v>40</v>
       </c>
-      <c r="F5" t="n">
-        <v>41</v>
-      </c>
       <c r="G5" t="n">
-        <v>0.494</v>
+        <v>0.506</v>
       </c>
       <c r="H5" t="n">
         <v>48.6</v>
       </c>
       <c r="I5" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="J5" t="n">
-        <v>83.7</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>0.456</v>
+        <v>0.457</v>
       </c>
       <c r="L5" t="n">
         <v>6</v>
@@ -1242,16 +1309,16 @@
         <v>15.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="O5" t="n">
-        <v>19.8</v>
+        <v>20</v>
       </c>
       <c r="P5" t="n">
-        <v>24.8</v>
+        <v>25.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.797</v>
+        <v>0.796</v>
       </c>
       <c r="R5" t="n">
         <v>11.8</v>
@@ -1263,10 +1330,10 @@
         <v>42.1</v>
       </c>
       <c r="U5" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V5" t="n">
-        <v>14.5</v>
+        <v>14.6</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1281,37 +1348,37 @@
         <v>20.9</v>
       </c>
       <c r="AA5" t="n">
-        <v>20.7</v>
+        <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0.4</v>
+        <v>-0.1</v>
       </c>
       <c r="AD5" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>15</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
       </c>
       <c r="AK5" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AL5" t="n">
         <v>22</v>
@@ -1320,10 +1387,10 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,22 +1399,22 @@
         <v>7</v>
       </c>
       <c r="AR5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS5" t="n">
         <v>15</v>
       </c>
       <c r="AT5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
         <v>13</v>
       </c>
       <c r="AV5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX5" t="n">
         <v>4</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -1409,46 +1476,46 @@
         <v>48.2</v>
       </c>
       <c r="I6" t="n">
-        <v>37</v>
+        <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>78.8</v>
+        <v>78.59999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.469</v>
+        <v>0.468</v>
       </c>
       <c r="L6" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="M6" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.395</v>
+        <v>0.392</v>
       </c>
       <c r="O6" t="n">
-        <v>18.5</v>
+        <v>18.7</v>
       </c>
       <c r="P6" t="n">
-        <v>24.4</v>
+        <v>24.7</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="R6" t="n">
         <v>10.8</v>
       </c>
       <c r="S6" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T6" t="n">
-        <v>42.2</v>
+        <v>42.3</v>
       </c>
       <c r="U6" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V6" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.2</v>
@@ -1457,22 +1524,22 @@
         <v>5.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z6" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.5</v>
+        <v>100.2</v>
       </c>
       <c r="AC6" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>1</v>
@@ -1484,19 +1551,19 @@
         <v>1</v>
       </c>
       <c r="AH6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AK6" t="n">
         <v>6</v>
       </c>
       <c r="AL6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM6" t="n">
         <v>5</v>
@@ -1505,7 +1572,7 @@
         <v>2</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1514,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="AR6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AV6" t="n">
         <v>5</v>
@@ -1535,10 +1602,10 @@
         <v>7</v>
       </c>
       <c r="AY6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ6" t="n">
         <v>7</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>9</v>
       </c>
       <c r="BA6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -1576,22 +1643,22 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F7" t="n">
         <v>32</v>
       </c>
       <c r="G7" t="n">
-        <v>0.61</v>
+        <v>0.605</v>
       </c>
       <c r="H7" t="n">
         <v>48.3</v>
       </c>
       <c r="I7" t="n">
-        <v>38.1</v>
+        <v>38.2</v>
       </c>
       <c r="J7" t="n">
         <v>82.59999999999999</v>
@@ -1603,10 +1670,10 @@
         <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>0.35</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
         <v>18.5</v>
@@ -1624,7 +1691,7 @@
         <v>31.6</v>
       </c>
       <c r="T7" t="n">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="U7" t="n">
         <v>21.7</v>
@@ -1633,13 +1700,13 @@
         <v>12.7</v>
       </c>
       <c r="W7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X7" t="n">
         <v>5.2</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="Z7" t="n">
         <v>19.5</v>
@@ -1648,13 +1715,13 @@
         <v>20.1</v>
       </c>
       <c r="AB7" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>9</v>
@@ -1669,7 +1736,7 @@
         <v>14</v>
       </c>
       <c r="AI7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>6</v>
@@ -1681,13 +1748,13 @@
         <v>12</v>
       </c>
       <c r="AM7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN7" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1696,7 +1763,7 @@
         <v>2</v>
       </c>
       <c r="AR7" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AS7" t="n">
         <v>5</v>
@@ -1711,10 +1778,10 @@
         <v>6</v>
       </c>
       <c r="AW7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>4</v>
@@ -1723,13 +1790,13 @@
         <v>4</v>
       </c>
       <c r="BA7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB7" t="n">
         <v>9</v>
       </c>
       <c r="BC7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -1758,28 +1825,28 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E8" t="n">
         <v>54</v>
       </c>
       <c r="F8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" t="n">
-        <v>0.659</v>
+        <v>0.667</v>
       </c>
       <c r="H8" t="n">
         <v>48.1</v>
       </c>
       <c r="I8" t="n">
-        <v>37.3</v>
+        <v>37.4</v>
       </c>
       <c r="J8" t="n">
-        <v>79.40000000000001</v>
+        <v>79.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
@@ -1788,16 +1855,16 @@
         <v>18</v>
       </c>
       <c r="N8" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O8" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="P8" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.76</v>
+        <v>0.759</v>
       </c>
       <c r="R8" t="n">
         <v>11</v>
@@ -1809,7 +1876,7 @@
         <v>41.6</v>
       </c>
       <c r="U8" t="n">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="V8" t="n">
         <v>15.3</v>
@@ -1827,31 +1894,31 @@
         <v>22.9</v>
       </c>
       <c r="AA8" t="n">
-        <v>23.7</v>
+        <v>23.8</v>
       </c>
       <c r="AB8" t="n">
-        <v>104.3</v>
+        <v>104.7</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>5</v>
       </c>
       <c r="AF8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ8" t="n">
         <v>22</v>
@@ -1866,10 +1933,10 @@
         <v>17</v>
       </c>
       <c r="AN8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP8" t="n">
         <v>1</v>
@@ -1881,16 +1948,16 @@
         <v>15</v>
       </c>
       <c r="AS8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW8" t="n">
         <v>3</v>
@@ -1911,7 +1978,7 @@
         <v>6</v>
       </c>
       <c r="BC8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -1940,16 +2007,16 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E9" t="n">
         <v>39</v>
       </c>
       <c r="F9" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" t="n">
-        <v>0.476</v>
+        <v>0.481</v>
       </c>
       <c r="H9" t="n">
         <v>48.5</v>
@@ -1958,10 +2025,10 @@
         <v>36.4</v>
       </c>
       <c r="J9" t="n">
-        <v>80</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.454</v>
+        <v>0.455</v>
       </c>
       <c r="L9" t="n">
         <v>4.6</v>
@@ -1970,19 +2037,19 @@
         <v>13.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O9" t="n">
         <v>16.9</v>
       </c>
       <c r="P9" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q9" t="n">
         <v>0.751</v>
       </c>
       <c r="R9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S9" t="n">
         <v>29.9</v>
@@ -1991,7 +2058,7 @@
         <v>41.4</v>
       </c>
       <c r="U9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V9" t="n">
         <v>11.9</v>
@@ -2009,16 +2076,16 @@
         <v>20.9</v>
       </c>
       <c r="AA9" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="AB9" t="n">
         <v>94.2</v>
       </c>
       <c r="AC9" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2030,7 +2097,7 @@
         <v>17</v>
       </c>
       <c r="AH9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI9" t="n">
         <v>22</v>
@@ -2039,7 +2106,7 @@
         <v>17</v>
       </c>
       <c r="AK9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL9" t="n">
         <v>28</v>
@@ -2048,13 +2115,13 @@
         <v>28</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
         <v>28</v>
       </c>
       <c r="AP9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ9" t="n">
         <v>24</v>
@@ -2081,13 +2148,13 @@
         <v>19</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ9" t="n">
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BB9" t="n">
         <v>28</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E10" t="n">
         <v>29</v>
       </c>
       <c r="F10" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" t="n">
-        <v>0.354</v>
+        <v>0.358</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2152,7 +2219,7 @@
         <v>18</v>
       </c>
       <c r="N10" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O10" t="n">
         <v>23.1</v>
@@ -2164,13 +2231,13 @@
         <v>0.791</v>
       </c>
       <c r="R10" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S10" t="n">
         <v>30.4</v>
       </c>
       <c r="T10" t="n">
-        <v>42</v>
+        <v>41.9</v>
       </c>
       <c r="U10" t="n">
         <v>20.9</v>
@@ -2188,19 +2255,19 @@
         <v>5</v>
       </c>
       <c r="Z10" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA10" t="n">
         <v>23.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.6</v>
+        <v>108.5</v>
       </c>
       <c r="AC10" t="n">
         <v>-3.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
         <v>24</v>
@@ -2212,7 +2279,7 @@
         <v>24</v>
       </c>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>3</v>
@@ -2233,7 +2300,7 @@
         <v>11</v>
       </c>
       <c r="AO10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP10" t="n">
         <v>2</v>
@@ -2245,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
         <v>11</v>
@@ -2254,7 +2321,7 @@
         <v>15</v>
       </c>
       <c r="AV10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
@@ -2266,7 +2333,7 @@
         <v>18</v>
       </c>
       <c r="AZ10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BA10" t="n">
         <v>3</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -2304,16 +2371,16 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" t="n">
         <v>53</v>
       </c>
       <c r="F11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" t="n">
-        <v>0.646</v>
+        <v>0.654</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
@@ -2325,7 +2392,7 @@
         <v>79.59999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.453</v>
+        <v>0.454</v>
       </c>
       <c r="L11" t="n">
         <v>7.6</v>
@@ -2334,19 +2401,19 @@
         <v>20.2</v>
       </c>
       <c r="N11" t="n">
-        <v>0.375</v>
+        <v>0.376</v>
       </c>
       <c r="O11" t="n">
         <v>18.7</v>
       </c>
       <c r="P11" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="Q11" t="n">
         <v>0.805</v>
       </c>
       <c r="R11" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="S11" t="n">
         <v>32.5</v>
@@ -2358,7 +2425,7 @@
         <v>20.3</v>
       </c>
       <c r="V11" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W11" t="n">
         <v>6.7</v>
@@ -2376,22 +2443,22 @@
         <v>20.6</v>
       </c>
       <c r="AB11" t="n">
-        <v>98.40000000000001</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH11" t="n">
         <v>14</v>
@@ -2403,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="AK11" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL11" t="n">
         <v>7</v>
@@ -2412,10 +2479,10 @@
         <v>6</v>
       </c>
       <c r="AN11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AO11" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2433,13 +2500,13 @@
         <v>4</v>
       </c>
       <c r="AU11" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AV11" t="n">
         <v>16</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AX11" t="n">
         <v>24</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E12" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" t="n">
         <v>46</v>
       </c>
       <c r="G12" t="n">
-        <v>0.439</v>
+        <v>0.432</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
@@ -2504,37 +2571,37 @@
         <v>39.3</v>
       </c>
       <c r="J12" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="K12" t="n">
         <v>0.455</v>
       </c>
       <c r="L12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M12" t="n">
         <v>21</v>
       </c>
       <c r="N12" t="n">
-        <v>0.378</v>
+        <v>0.376</v>
       </c>
       <c r="O12" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="P12" t="n">
         <v>23</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.806</v>
       </c>
       <c r="R12" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S12" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U12" t="n">
         <v>21.6</v>
@@ -2546,25 +2613,25 @@
         <v>7</v>
       </c>
       <c r="X12" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y12" t="n">
         <v>5.4</v>
       </c>
       <c r="Z12" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="AA12" t="n">
         <v>20.6</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="AC12" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE12" t="n">
         <v>18</v>
@@ -2576,7 +2643,7 @@
         <v>18</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
@@ -2585,25 +2652,25 @@
         <v>2</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AM12" t="n">
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR12" t="n">
         <v>12</v>
@@ -2618,16 +2685,16 @@
         <v>9</v>
       </c>
       <c r="AV12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY12" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
         <v>28</v>
@@ -2639,7 +2706,7 @@
         <v>5</v>
       </c>
       <c r="BC12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" t="n">
         <v>19</v>
       </c>
       <c r="F13" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G13" t="n">
-        <v>0.232</v>
+        <v>0.235</v>
       </c>
       <c r="H13" t="n">
         <v>48.5</v>
@@ -2695,16 +2762,16 @@
         <v>6.5</v>
       </c>
       <c r="M13" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="N13" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P13" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0.736</v>
@@ -2716,13 +2783,13 @@
         <v>29</v>
       </c>
       <c r="T13" t="n">
-        <v>39.8</v>
+        <v>39.9</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="V13" t="n">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2731,22 +2798,22 @@
         <v>5.9</v>
       </c>
       <c r="Y13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Z13" t="n">
         <v>20.1</v>
       </c>
       <c r="AA13" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AB13" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="AC13" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE13" t="n">
         <v>28</v>
@@ -2758,7 +2825,7 @@
         <v>28</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI13" t="n">
         <v>25</v>
@@ -2770,25 +2837,25 @@
         <v>30</v>
       </c>
       <c r="AL13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM13" t="n">
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO13" t="n">
         <v>29</v>
       </c>
       <c r="AP13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ13" t="n">
         <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AS13" t="n">
         <v>23</v>
@@ -2803,25 +2870,25 @@
         <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX13" t="n">
         <v>3</v>
       </c>
       <c r="AY13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
         <v>6</v>
       </c>
       <c r="BA13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BB13" t="n">
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -2850,25 +2917,25 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E14" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F14" t="n">
         <v>17</v>
       </c>
       <c r="G14" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="H14" t="n">
         <v>48.2</v>
       </c>
       <c r="I14" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="J14" t="n">
-        <v>85.2</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="K14" t="n">
         <v>0.474</v>
@@ -2877,25 +2944,25 @@
         <v>6.7</v>
       </c>
       <c r="M14" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="N14" t="n">
-        <v>0.359</v>
+        <v>0.361</v>
       </c>
       <c r="O14" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="P14" t="n">
         <v>25.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R14" t="n">
         <v>12.4</v>
       </c>
       <c r="S14" t="n">
-        <v>31.4</v>
+        <v>31.5</v>
       </c>
       <c r="T14" t="n">
         <v>43.9</v>
@@ -2904,7 +2971,7 @@
         <v>23.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="W14" t="n">
         <v>8.800000000000001</v>
@@ -2916,19 +2983,19 @@
         <v>4.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>2</v>
@@ -2940,7 +3007,7 @@
         <v>2</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
         <v>2</v>
@@ -2958,10 +3025,10 @@
         <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP14" t="n">
         <v>8</v>
@@ -2988,22 +3055,22 @@
         <v>2</v>
       </c>
       <c r="AX14" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ14" t="n">
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB14" t="n">
         <v>3</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F15" t="n">
         <v>58</v>
       </c>
       <c r="G15" t="n">
-        <v>0.293</v>
+        <v>0.284</v>
       </c>
       <c r="H15" t="n">
         <v>48.3</v>
@@ -3053,13 +3120,13 @@
         <v>77</v>
       </c>
       <c r="K15" t="n">
-        <v>0.454</v>
+        <v>0.453</v>
       </c>
       <c r="L15" t="n">
         <v>4.9</v>
       </c>
       <c r="M15" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="N15" t="n">
         <v>0.36</v>
@@ -3071,19 +3138,19 @@
         <v>25.3</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.756</v>
+        <v>0.757</v>
       </c>
       <c r="R15" t="n">
-        <v>10.3</v>
+        <v>10.4</v>
       </c>
       <c r="S15" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T15" t="n">
         <v>38.8</v>
       </c>
       <c r="U15" t="n">
-        <v>17.4</v>
+        <v>17.3</v>
       </c>
       <c r="V15" t="n">
         <v>15.3</v>
@@ -3092,7 +3159,7 @@
         <v>7.5</v>
       </c>
       <c r="X15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y15" t="n">
         <v>5.4</v>
@@ -3101,25 +3168,25 @@
         <v>21.7</v>
       </c>
       <c r="AA15" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB15" t="n">
-        <v>93.90000000000001</v>
+        <v>93.8</v>
       </c>
       <c r="AC15" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH15" t="n">
         <v>14</v>
@@ -3131,7 +3198,7 @@
         <v>29</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL15" t="n">
         <v>25</v>
@@ -3140,22 +3207,22 @@
         <v>27</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AO15" t="n">
         <v>13</v>
       </c>
       <c r="AP15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AQ15" t="n">
         <v>22</v>
       </c>
       <c r="AR15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AS15" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AT15" t="n">
         <v>30</v>
@@ -3167,22 +3234,22 @@
         <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX15" t="n">
         <v>18</v>
       </c>
       <c r="AY15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA15" t="n">
         <v>9</v>
       </c>
       <c r="BB15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC15" t="n">
         <v>26</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -3214,19 +3281,19 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F16" t="n">
         <v>39</v>
       </c>
       <c r="G16" t="n">
-        <v>0.524</v>
+        <v>0.519</v>
       </c>
       <c r="H16" t="n">
-        <v>48.7</v>
+        <v>48.6</v>
       </c>
       <c r="I16" t="n">
         <v>37</v>
@@ -3235,34 +3302,34 @@
         <v>81</v>
       </c>
       <c r="K16" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L16" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M16" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="N16" t="n">
-        <v>0.357</v>
+        <v>0.355</v>
       </c>
       <c r="O16" t="n">
-        <v>17.2</v>
+        <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.754</v>
+        <v>0.755</v>
       </c>
       <c r="R16" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.3</v>
       </c>
       <c r="T16" t="n">
-        <v>39.5</v>
+        <v>39.4</v>
       </c>
       <c r="U16" t="n">
         <v>20.4</v>
@@ -3271,7 +3338,7 @@
         <v>12.5</v>
       </c>
       <c r="W16" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X16" t="n">
         <v>5.5</v>
@@ -3289,10 +3356,10 @@
         <v>98.3</v>
       </c>
       <c r="AC16" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="AD16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>14</v>
@@ -3313,7 +3380,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL16" t="n">
         <v>11</v>
@@ -3322,7 +3389,7 @@
         <v>9</v>
       </c>
       <c r="AN16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO16" t="n">
         <v>27</v>
@@ -3349,7 +3416,7 @@
         <v>3</v>
       </c>
       <c r="AW16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX16" t="n">
         <v>5</v>
@@ -3361,10 +3428,10 @@
         <v>16</v>
       </c>
       <c r="BA16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BB16" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC16" t="n">
         <v>14</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -3411,76 +3478,76 @@
         <v>48.2</v>
       </c>
       <c r="I17" t="n">
-        <v>36.7</v>
+        <v>36.6</v>
       </c>
       <c r="J17" t="n">
-        <v>82.40000000000001</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.445</v>
+        <v>0.446</v>
       </c>
       <c r="L17" t="n">
         <v>6.2</v>
       </c>
       <c r="M17" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N17" t="n">
-        <v>0.362</v>
+        <v>0.363</v>
       </c>
       <c r="O17" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
         <v>25.3</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R17" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="S17" t="n">
-        <v>29</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.8</v>
+        <v>40.7</v>
       </c>
       <c r="U17" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V17" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W17" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X17" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>24.1</v>
+        <v>24.3</v>
       </c>
       <c r="AA17" t="n">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>99.3</v>
+        <v>99.2</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE17" t="n">
         <v>20</v>
       </c>
       <c r="AF17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG17" t="n">
         <v>20</v>
@@ -3495,7 +3562,7 @@
         <v>8</v>
       </c>
       <c r="AK17" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AL17" t="n">
         <v>21</v>
@@ -3507,16 +3574,16 @@
         <v>18</v>
       </c>
       <c r="AO17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ17" t="n">
         <v>11</v>
       </c>
       <c r="AR17" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS17" t="n">
         <v>24</v>
@@ -3528,10 +3595,10 @@
         <v>7</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AX17" t="n">
         <v>29</v>
@@ -3549,7 +3616,7 @@
         <v>15</v>
       </c>
       <c r="BC17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -3578,46 +3645,46 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" t="n">
         <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G18" t="n">
-        <v>0.293</v>
+        <v>0.296</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J18" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="K18" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L18" t="n">
         <v>6.6</v>
       </c>
       <c r="M18" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N18" t="n">
-        <v>0.353</v>
+        <v>0.354</v>
       </c>
       <c r="O18" t="n">
         <v>18.3</v>
       </c>
       <c r="P18" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="R18" t="n">
         <v>11.9</v>
@@ -3638,25 +3705,25 @@
         <v>6.2</v>
       </c>
       <c r="X18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="Y18" t="n">
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AA18" t="n">
         <v>20</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-4.9</v>
       </c>
       <c r="AD18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -3671,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3704,7 +3771,7 @@
         <v>18</v>
       </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AU18" t="n">
         <v>17</v>
@@ -3722,7 +3789,7 @@
         <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA18" t="n">
         <v>24</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -3760,34 +3827,34 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" t="n">
         <v>34</v>
       </c>
       <c r="F19" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" t="n">
-        <v>0.415</v>
+        <v>0.42</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
       </c>
       <c r="I19" t="n">
-        <v>35.7</v>
+        <v>35.8</v>
       </c>
       <c r="J19" t="n">
         <v>79.7</v>
       </c>
       <c r="K19" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L19" t="n">
         <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N19" t="n">
         <v>0.376</v>
@@ -3796,25 +3863,25 @@
         <v>18.8</v>
       </c>
       <c r="P19" t="n">
-        <v>24.1</v>
+        <v>24.2</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.779</v>
+        <v>0.778</v>
       </c>
       <c r="R19" t="n">
-        <v>10.4</v>
+        <v>10.2</v>
       </c>
       <c r="S19" t="n">
         <v>29.5</v>
       </c>
       <c r="T19" t="n">
-        <v>39.8</v>
+        <v>39.7</v>
       </c>
       <c r="U19" t="n">
         <v>20</v>
       </c>
       <c r="V19" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W19" t="n">
         <v>6.8</v>
@@ -3826,43 +3893,43 @@
         <v>4.8</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AA19" t="n">
         <v>20.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>98.09999999999999</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC19" t="n">
-        <v>-2.4</v>
+        <v>-2.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AG19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
       </c>
       <c r="AL19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM19" t="n">
         <v>3</v>
@@ -3880,13 +3947,13 @@
         <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AS19" t="n">
         <v>20</v>
       </c>
       <c r="AT19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU19" t="n">
         <v>26</v>
@@ -3901,16 +3968,16 @@
         <v>16</v>
       </c>
       <c r="AY19" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA19" t="n">
         <v>18</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -3942,19 +4009,19 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E20" t="n">
         <v>49</v>
       </c>
       <c r="F20" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G20" t="n">
-        <v>0.598</v>
+        <v>0.605</v>
       </c>
       <c r="H20" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I20" t="n">
         <v>35.5</v>
@@ -3969,34 +4036,34 @@
         <v>6.8</v>
       </c>
       <c r="M20" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N20" t="n">
         <v>0.364</v>
       </c>
       <c r="O20" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="P20" t="n">
         <v>22.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="R20" t="n">
-        <v>9.800000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="S20" t="n">
         <v>29.9</v>
       </c>
       <c r="T20" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="U20" t="n">
         <v>19.6</v>
       </c>
       <c r="V20" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="W20" t="n">
         <v>7.2</v>
@@ -4005,7 +4072,7 @@
         <v>4.1</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="Z20" t="n">
         <v>20.3</v>
@@ -4017,22 +4084,22 @@
         <v>95.8</v>
       </c>
       <c r="AC20" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AI20" t="n">
         <v>28</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>13</v>
@@ -4059,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>28</v>
@@ -4068,7 +4135,7 @@
         <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AU20" t="n">
         <v>28</v>
@@ -4077,7 +4144,7 @@
         <v>4</v>
       </c>
       <c r="AW20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AX20" t="n">
         <v>26</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -4124,16 +4191,16 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E21" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F21" t="n">
         <v>50</v>
       </c>
       <c r="G21" t="n">
-        <v>0.39</v>
+        <v>0.383</v>
       </c>
       <c r="H21" t="n">
         <v>48.3</v>
@@ -4148,13 +4215,13 @@
         <v>0.445</v>
       </c>
       <c r="L21" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="M21" t="n">
         <v>27.9</v>
       </c>
       <c r="N21" t="n">
-        <v>0.36</v>
+        <v>0.361</v>
       </c>
       <c r="O21" t="n">
         <v>18.2</v>
@@ -4163,7 +4230,7 @@
         <v>23.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.784</v>
+        <v>0.783</v>
       </c>
       <c r="R21" t="n">
         <v>11.1</v>
@@ -4178,7 +4245,7 @@
         <v>21.2</v>
       </c>
       <c r="V21" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W21" t="n">
         <v>7.4</v>
@@ -4199,10 +4266,10 @@
         <v>105.2</v>
       </c>
       <c r="AC21" t="n">
-        <v>-2.6</v>
+        <v>-3</v>
       </c>
       <c r="AD21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4223,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4235,7 +4302,7 @@
         <v>19</v>
       </c>
       <c r="AO21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP21" t="n">
         <v>22</v>
@@ -4244,13 +4311,13 @@
         <v>10</v>
       </c>
       <c r="AR21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>9</v>
       </c>
       <c r="AT21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU21" t="n">
         <v>11</v>
@@ -4259,16 +4326,16 @@
         <v>18</v>
       </c>
       <c r="AW21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>29</v>
@@ -4277,7 +4344,7 @@
         <v>4</v>
       </c>
       <c r="BC21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -4306,28 +4373,28 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E22" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F22" t="n">
         <v>59</v>
       </c>
       <c r="G22" t="n">
-        <v>0.28</v>
+        <v>0.272</v>
       </c>
       <c r="H22" t="n">
         <v>48.3</v>
       </c>
       <c r="I22" t="n">
-        <v>36.6</v>
+        <v>36.4</v>
       </c>
       <c r="J22" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K22" t="n">
-        <v>0.447</v>
+        <v>0.445</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
@@ -4342,28 +4409,28 @@
         <v>19.8</v>
       </c>
       <c r="P22" t="n">
-        <v>25.2</v>
+        <v>25.1</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.786</v>
+        <v>0.785</v>
       </c>
       <c r="R22" t="n">
         <v>12.2</v>
       </c>
       <c r="S22" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T22" t="n">
         <v>42.6</v>
       </c>
       <c r="U22" t="n">
-        <v>20.3</v>
+        <v>20.1</v>
       </c>
       <c r="V22" t="n">
-        <v>16.2</v>
+        <v>16.3</v>
       </c>
       <c r="W22" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="X22" t="n">
         <v>4.5</v>
@@ -4378,13 +4445,13 @@
         <v>20.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>97</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC22" t="n">
-        <v>-6.1</v>
+        <v>-6.7</v>
       </c>
       <c r="AD22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>27</v>
@@ -4399,13 +4466,13 @@
         <v>14</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>9</v>
       </c>
       <c r="AK22" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL22" t="n">
         <v>30</v>
@@ -4417,10 +4484,10 @@
         <v>28</v>
       </c>
       <c r="AO22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ22" t="n">
         <v>9</v>
@@ -4429,19 +4496,19 @@
         <v>4</v>
       </c>
       <c r="AS22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
       </c>
       <c r="AU22" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AV22" t="n">
         <v>30</v>
       </c>
       <c r="AW22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AX22" t="n">
         <v>22</v>
@@ -4450,7 +4517,7 @@
         <v>17</v>
       </c>
       <c r="AZ22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA22" t="n">
         <v>21</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E23" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F23" t="n">
         <v>23</v>
       </c>
       <c r="G23" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
@@ -4518,16 +4585,16 @@
         <v>26.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.381</v>
+        <v>0.38</v>
       </c>
       <c r="O23" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="P23" t="n">
         <v>27.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.715</v>
+        <v>0.716</v>
       </c>
       <c r="R23" t="n">
         <v>10</v>
@@ -4536,37 +4603,37 @@
         <v>33.3</v>
       </c>
       <c r="T23" t="n">
-        <v>43.3</v>
+        <v>43.2</v>
       </c>
       <c r="U23" t="n">
         <v>19.4</v>
       </c>
       <c r="V23" t="n">
-        <v>13.9</v>
+        <v>14</v>
       </c>
       <c r="W23" t="n">
         <v>7</v>
       </c>
       <c r="X23" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Z23" t="n">
         <v>20.3</v>
       </c>
       <c r="AA23" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>101</v>
+        <v>101.1</v>
       </c>
       <c r="AC23" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE23" t="n">
         <v>4</v>
@@ -4578,10 +4645,10 @@
         <v>4</v>
       </c>
       <c r="AH23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI23" t="n">
         <v>27</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>26</v>
       </c>
       <c r="AJ23" t="n">
         <v>26</v>
@@ -4599,7 +4666,7 @@
         <v>7</v>
       </c>
       <c r="AO23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP23" t="n">
         <v>4</v>
@@ -4620,10 +4687,10 @@
         <v>29</v>
       </c>
       <c r="AV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX23" t="n">
         <v>6</v>
@@ -4638,7 +4705,7 @@
         <v>6</v>
       </c>
       <c r="BB23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC23" t="n">
         <v>4</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -4670,28 +4737,28 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F24" t="n">
         <v>41</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5</v>
+        <v>0.494</v>
       </c>
       <c r="H24" t="n">
-        <v>48.2</v>
+        <v>48.1</v>
       </c>
       <c r="I24" t="n">
         <v>36.5</v>
       </c>
       <c r="J24" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="K24" t="n">
-        <v>0.459</v>
+        <v>0.458</v>
       </c>
       <c r="L24" t="n">
         <v>4.2</v>
@@ -4703,13 +4770,13 @@
         <v>0.318</v>
       </c>
       <c r="O24" t="n">
-        <v>20.1</v>
+        <v>20</v>
       </c>
       <c r="P24" t="n">
-        <v>27</v>
+        <v>26.8</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.745</v>
+        <v>0.746</v>
       </c>
       <c r="R24" t="n">
         <v>12.7</v>
@@ -4736,40 +4803,40 @@
         <v>4.9</v>
       </c>
       <c r="Z24" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA24" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="AB24" t="n">
-        <v>97.40000000000001</v>
+        <v>97.2</v>
       </c>
       <c r="AC24" t="n">
         <v>0.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AF24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AI24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>18</v>
       </c>
-      <c r="AJ24" t="n">
-        <v>20</v>
-      </c>
       <c r="AK24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL24" t="n">
         <v>29</v>
@@ -4793,19 +4860,19 @@
         <v>2</v>
       </c>
       <c r="AS24" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AT24" t="n">
         <v>17</v>
       </c>
       <c r="AU24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV24" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
         <v>12</v>
@@ -4814,10 +4881,10 @@
         <v>16</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB24" t="n">
         <v>22</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E25" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F25" t="n">
         <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.556</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
@@ -4870,10 +4937,10 @@
         <v>41.1</v>
       </c>
       <c r="J25" t="n">
-        <v>81.59999999999999</v>
+        <v>81.5</v>
       </c>
       <c r="K25" t="n">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="L25" t="n">
         <v>6.7</v>
@@ -4882,31 +4949,31 @@
         <v>17.6</v>
       </c>
       <c r="N25" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="P25" t="n">
-        <v>27.5</v>
+        <v>27.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.744</v>
+        <v>0.745</v>
       </c>
       <c r="R25" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S25" t="n">
-        <v>30.7</v>
+        <v>30.8</v>
       </c>
       <c r="T25" t="n">
-        <v>41.7</v>
+        <v>41.6</v>
       </c>
       <c r="U25" t="n">
         <v>23.2</v>
       </c>
       <c r="V25" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="W25" t="n">
         <v>7.2</v>
@@ -4924,13 +4991,13 @@
         <v>22.9</v>
       </c>
       <c r="AB25" t="n">
-        <v>109.4</v>
+        <v>109.3</v>
       </c>
       <c r="AC25" t="n">
         <v>1.9</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>13</v>
@@ -4942,13 +5009,13 @@
         <v>13</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>1</v>
       </c>
       <c r="AJ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4972,13 +5039,13 @@
         <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS25" t="n">
         <v>10</v>
       </c>
       <c r="AT25" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AU25" t="n">
         <v>3</v>
@@ -4990,7 +5057,7 @@
         <v>18</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY25" t="n">
         <v>10</v>
@@ -5005,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -5037,25 +5104,25 @@
         <v>81</v>
       </c>
       <c r="E26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.667</v>
+        <v>0.654</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.9</v>
+        <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>79.09999999999999</v>
+        <v>79.3</v>
       </c>
       <c r="K26" t="n">
-        <v>0.466</v>
+        <v>0.464</v>
       </c>
       <c r="L26" t="n">
         <v>7.2</v>
@@ -5064,31 +5131,31 @@
         <v>18.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.383</v>
+        <v>0.38</v>
       </c>
       <c r="O26" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="P26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.766</v>
+        <v>0.765</v>
       </c>
       <c r="R26" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S26" t="n">
-        <v>28.8</v>
+        <v>28.7</v>
       </c>
       <c r="T26" t="n">
         <v>41.7</v>
       </c>
       <c r="U26" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V26" t="n">
-        <v>12.9</v>
+        <v>12.8</v>
       </c>
       <c r="W26" t="n">
         <v>6.7</v>
@@ -5103,37 +5170,37 @@
         <v>20.4</v>
       </c>
       <c r="AA26" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>99.7</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.7</v>
+        <v>5.1</v>
       </c>
       <c r="AD26" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="AE26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH26" t="n">
         <v>11</v>
       </c>
       <c r="AI26" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
       </c>
       <c r="AK26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL26" t="n">
         <v>9</v>
@@ -5142,10 +5209,10 @@
         <v>12</v>
       </c>
       <c r="AN26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
         <v>16</v>
@@ -5163,7 +5230,7 @@
         <v>13</v>
       </c>
       <c r="AU26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AV26" t="n">
         <v>8</v>
@@ -5178,7 +5245,7 @@
         <v>3</v>
       </c>
       <c r="AZ26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA26" t="n">
         <v>11</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -5216,25 +5283,25 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F27" t="n">
         <v>65</v>
       </c>
       <c r="G27" t="n">
-        <v>0.207</v>
+        <v>0.198</v>
       </c>
       <c r="H27" t="n">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I27" t="n">
         <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>81.5</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="K27" t="n">
         <v>0.447</v>
@@ -5243,10 +5310,10 @@
         <v>7.1</v>
       </c>
       <c r="M27" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="N27" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O27" t="n">
         <v>20.5</v>
@@ -5261,13 +5328,13 @@
         <v>10.2</v>
       </c>
       <c r="S27" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T27" t="n">
         <v>39.1</v>
       </c>
       <c r="U27" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="V27" t="n">
         <v>15.4</v>
@@ -5276,7 +5343,7 @@
         <v>6.9</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
         <v>5.2</v>
@@ -5285,16 +5352,16 @@
         <v>23.3</v>
       </c>
       <c r="AA27" t="n">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="AB27" t="n">
         <v>100.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-9</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>30</v>
@@ -5309,10 +5376,10 @@
         <v>4</v>
       </c>
       <c r="AI27" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK27" t="n">
         <v>25</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AO27" t="n">
         <v>4</v>
@@ -5336,7 +5403,7 @@
         <v>6</v>
       </c>
       <c r="AR27" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS27" t="n">
         <v>25</v>
@@ -5357,7 +5424,7 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ27" t="n">
         <v>29</v>
@@ -5369,7 +5436,7 @@
         <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -5398,28 +5465,28 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E28" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F28" t="n">
         <v>28</v>
       </c>
       <c r="G28" t="n">
-        <v>0.659</v>
+        <v>0.654</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>37.1</v>
+        <v>37</v>
       </c>
       <c r="J28" t="n">
-        <v>79.7</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.466</v>
+        <v>0.465</v>
       </c>
       <c r="L28" t="n">
         <v>7.6</v>
@@ -5428,7 +5495,7 @@
         <v>19.8</v>
       </c>
       <c r="N28" t="n">
-        <v>0.386</v>
+        <v>0.387</v>
       </c>
       <c r="O28" t="n">
         <v>15.2</v>
@@ -5443,7 +5510,7 @@
         <v>8.9</v>
       </c>
       <c r="S28" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T28" t="n">
         <v>41</v>
@@ -5464,7 +5531,7 @@
         <v>4.3</v>
       </c>
       <c r="Z28" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA28" t="n">
         <v>18.4</v>
@@ -5473,13 +5540,13 @@
         <v>97</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF28" t="n">
         <v>6</v>
@@ -5488,16 +5555,16 @@
         <v>6</v>
       </c>
       <c r="AH28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI28" t="n">
         <v>12</v>
       </c>
       <c r="AJ28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL28" t="n">
         <v>6</v>
@@ -5524,7 +5591,7 @@
         <v>4</v>
       </c>
       <c r="AT28" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AU28" t="n">
         <v>12</v>
@@ -5539,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="AY28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ28" t="n">
         <v>1</v>
@@ -5551,7 +5618,7 @@
         <v>23</v>
       </c>
       <c r="BC28" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F29" t="n">
         <v>49</v>
       </c>
       <c r="G29" t="n">
-        <v>0.402</v>
+        <v>0.395</v>
       </c>
       <c r="H29" t="n">
         <v>48.3</v>
@@ -5598,19 +5665,19 @@
         <v>37.2</v>
       </c>
       <c r="J29" t="n">
-        <v>81.40000000000001</v>
+        <v>81.2</v>
       </c>
       <c r="K29" t="n">
-        <v>0.458</v>
+        <v>0.457</v>
       </c>
       <c r="L29" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="N29" t="n">
-        <v>0.372</v>
+        <v>0.371</v>
       </c>
       <c r="O29" t="n">
         <v>18.7</v>
@@ -5622,16 +5689,16 @@
         <v>0.824</v>
       </c>
       <c r="R29" t="n">
-        <v>9.800000000000001</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="S29" t="n">
-        <v>30.6</v>
+        <v>30.5</v>
       </c>
       <c r="T29" t="n">
-        <v>40.4</v>
+        <v>40.2</v>
       </c>
       <c r="U29" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="V29" t="n">
         <v>13.4</v>
@@ -5652,13 +5719,13 @@
         <v>20.1</v>
       </c>
       <c r="AB29" t="n">
-        <v>99</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
@@ -5685,10 +5752,10 @@
         <v>24</v>
       </c>
       <c r="AM29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>16</v>
@@ -5700,16 +5767,16 @@
         <v>1</v>
       </c>
       <c r="AR29" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AS29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT29" t="n">
         <v>21</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>10</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
         <v>12</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -5852,7 +5919,7 @@
         <v>11</v>
       </c>
       <c r="AH30" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI30" t="n">
         <v>6</v>
@@ -5870,7 +5937,7 @@
         <v>26</v>
       </c>
       <c r="AN30" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5888,7 +5955,7 @@
         <v>19</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>1</v>
@@ -5903,7 +5970,7 @@
         <v>21</v>
       </c>
       <c r="AY30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
@@ -5944,16 +6011,16 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" t="n">
         <v>19</v>
       </c>
       <c r="F31" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G31" t="n">
-        <v>0.232</v>
+        <v>0.235</v>
       </c>
       <c r="H31" t="n">
         <v>48.1</v>
@@ -5965,25 +6032,25 @@
         <v>81.2</v>
       </c>
       <c r="K31" t="n">
-        <v>0.45</v>
+        <v>0.449</v>
       </c>
       <c r="L31" t="n">
         <v>4.8</v>
       </c>
       <c r="M31" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="N31" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O31" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="P31" t="n">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R31" t="n">
         <v>11.7</v>
@@ -5995,7 +6062,7 @@
         <v>40.1</v>
       </c>
       <c r="U31" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="V31" t="n">
         <v>14</v>
@@ -6004,25 +6071,25 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y31" t="n">
         <v>5.3</v>
       </c>
       <c r="Z31" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AA31" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB31" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC31" t="n">
         <v>-7.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
@@ -6037,7 +6104,7 @@
         <v>29</v>
       </c>
       <c r="AI31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ31" t="n">
         <v>14</v>
@@ -6055,7 +6122,7 @@
         <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP31" t="n">
         <v>20</v>
@@ -6067,7 +6134,7 @@
         <v>8</v>
       </c>
       <c r="AS31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AT31" t="n">
         <v>22</v>
@@ -6076,10 +6143,10 @@
         <v>25</v>
       </c>
       <c r="AV31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6088,7 +6155,7 @@
         <v>22</v>
       </c>
       <c r="AZ31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-15-2008-09</t>
+          <t>2009-04-15</t>
         </is>
       </c>
     </row>
